--- a/Projections.xlsx
+++ b/Projections.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\dev\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik\dev\Python\Fantasy Basketball Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="5025" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="6735" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -827,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5705,16 +5704,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Projections.xlsx
+++ b/Projections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="6735" windowHeight="5025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Chris Paul, LAC PG</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Al Jefferson, Cha C</t>
   </si>
   <si>
-    <t>Damian Lillard, Por PG</t>
-  </si>
-  <si>
     <t>Chris Bosh, Mia C</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>DeAndre Jordan, LAC C</t>
   </si>
   <si>
-    <t>Dwight Howard, Hou C</t>
-  </si>
-  <si>
     <t>Eric Bledsoe, Pho PG</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Joakim Noah, Chi C</t>
   </si>
   <si>
-    <t>Monta Ellis, Dal SG, PG</t>
-  </si>
-  <si>
     <t>Al Horford, Atl C  DTD</t>
   </si>
   <si>
@@ -161,12 +152,6 @@
     <t>Chandler Parsons, Dal SF</t>
   </si>
   <si>
-    <t>Kenneth Faried, Den PF</t>
-  </si>
-  <si>
-    <t>Bradley Beal, Wsh SG</t>
-  </si>
-  <si>
     <t>Gordon Hayward, Uta SG</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>Deron Williams, Bkn PG</t>
   </si>
   <si>
-    <t>Michael Carter-Williams, Phi PG  DTD</t>
-  </si>
-  <si>
     <t>Wesley Matthews, Por SG</t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>Pau Gasol, Chi PF</t>
   </si>
   <si>
-    <t>Josh Smith, Det SF</t>
-  </si>
-  <si>
     <t>Marcin Gortat, Wsh C</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Kyle Korver, Atl SG  DTD</t>
   </si>
   <si>
-    <t>Lance Stephenson, Cha SG</t>
-  </si>
-  <si>
     <t>David West, Ind PF</t>
   </si>
   <si>
@@ -248,9 +224,6 @@
     <t>Brandon Jennings, Det PG</t>
   </si>
   <si>
-    <t>Nerlens Noel, Phi C</t>
-  </si>
-  <si>
     <t>Ryan Anderson, Nor PF</t>
   </si>
   <si>
@@ -272,9 +245,6 @@
     <t>Greg Monroe, Det PF</t>
   </si>
   <si>
-    <t>Reggie Jackson, OKC PG</t>
-  </si>
-  <si>
     <t>Arron Afflalo, Den SG</t>
   </si>
   <si>
@@ -326,9 +296,6 @@
     <t>Kevin Martin, Min SG  DTD</t>
   </si>
   <si>
-    <t>Jeremy Lin, LAL PG</t>
-  </si>
-  <si>
     <t>Jeff Green, Bos SF  DTD</t>
   </si>
   <si>
@@ -347,12 +314,6 @@
     <t>Nikola Pekovic, Min C</t>
   </si>
   <si>
-    <t>Danilo Gallinari, Den SF  DTD</t>
-  </si>
-  <si>
-    <t>Mario Chalmers, Mia PG</t>
-  </si>
-  <si>
     <t>Nene *, Wsh PF  O</t>
   </si>
   <si>
@@ -365,15 +326,9 @@
     <t>Anderson Varejao, Cle C</t>
   </si>
   <si>
-    <t>Andre Iguodala, GS SF</t>
-  </si>
-  <si>
     <t>Josh McRoberts, Mia PF  DTD</t>
   </si>
   <si>
-    <t>Andrew Bogut, GS C</t>
-  </si>
-  <si>
     <t>John Henson, Mil PF</t>
   </si>
   <si>
@@ -383,12 +338,6 @@
     <t>Amir Johnson, Tor PF</t>
   </si>
   <si>
-    <t>Terrence Ross, Tor SG  DTD</t>
-  </si>
-  <si>
-    <t>Ersan Ilyasova, Mil PF  DTD</t>
-  </si>
-  <si>
     <t>Omer Asik, Nor C</t>
   </si>
   <si>
@@ -455,9 +404,6 @@
     <t>Caron Butler, Det SF</t>
   </si>
   <si>
-    <t>Harrison Barnes, GS SF</t>
-  </si>
-  <si>
     <t>Tony Allen, Mem SG</t>
   </si>
   <si>
@@ -467,12 +413,6 @@
     <t>Gerald Green, Pho SF</t>
   </si>
   <si>
-    <t>Anthony Bennett, Min PF  DTD</t>
-  </si>
-  <si>
-    <t>Jodie Meeks, Det SG</t>
-  </si>
-  <si>
     <t>Kentavious Caldwell-Pope, Det SG</t>
   </si>
   <si>
@@ -507,6 +447,93 @@
   </si>
   <si>
     <t>  PTS</t>
+  </si>
+  <si>
+    <t>Damian Lillard, Por PG  DTD</t>
+  </si>
+  <si>
+    <t>Monta Ellis, Dal SG, PG  DTD</t>
+  </si>
+  <si>
+    <t>Dwight Howard, Hou C  DTD</t>
+  </si>
+  <si>
+    <t>Kenneth Faried, Den PF  DTD</t>
+  </si>
+  <si>
+    <t>Bradley Beal*, Wsh SG  O</t>
+  </si>
+  <si>
+    <t>Michael Carter-Williams*, Phi PG  O</t>
+  </si>
+  <si>
+    <t>Jabari Parker, Mil SF</t>
+  </si>
+  <si>
+    <t>Josh Smith, Det SF  DTD</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins, Min SG</t>
+  </si>
+  <si>
+    <t>Lance Stephenson, Cha SG  DTD</t>
+  </si>
+  <si>
+    <t>Nerlens Noel, Phi C  DTD</t>
+  </si>
+  <si>
+    <t>Reggie Jackson, OKC PG  DTD</t>
+  </si>
+  <si>
+    <t>Elfrid Payton, Orl PG</t>
+  </si>
+  <si>
+    <t>Jeremy Lin, LAL PG  DTD</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari, Den SF</t>
+  </si>
+  <si>
+    <t>Mario Chalmers, Mia PG  DTD</t>
+  </si>
+  <si>
+    <t>Draymond Green, GS SF</t>
+  </si>
+  <si>
+    <t>Andre Iguodala, GS SF  DTD</t>
+  </si>
+  <si>
+    <t>Andrew Bogut, GS C  DTD</t>
+  </si>
+  <si>
+    <t>Terrence Ross, Tor SG</t>
+  </si>
+  <si>
+    <t>Ersan Ilyasova, Mil PF</t>
+  </si>
+  <si>
+    <t>K.J. McDaniels, Phi SF</t>
+  </si>
+  <si>
+    <t>Julius Randle, LAL PF</t>
+  </si>
+  <si>
+    <t>Dante Exum, Uta SG</t>
+  </si>
+  <si>
+    <t>Harrison Barnes, GS SF  DTD</t>
+  </si>
+  <si>
+    <t>Anthony Bennett, Min PF</t>
+  </si>
+  <si>
+    <t>Rodney Hood, Uta SG  DTD</t>
+  </si>
+  <si>
+    <t>Jodie Meeks, Det SG  DTD</t>
+  </si>
+  <si>
+    <t>P.J. Tucker*, Pho SG  O</t>
   </si>
 </sst>
 </file>
@@ -824,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -838,34 +865,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -873,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0.504</v>
@@ -905,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>0.57199999999999995</v>
       </c>
       <c r="D3">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="E3">
         <v>1.3</v>
@@ -937,31 +964,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0.51900000000000002</v>
       </c>
       <c r="D4">
-        <v>0.78</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.3000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="G4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>17.899999999999999</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -969,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0.46600000000000003</v>
       </c>
       <c r="D5">
-        <v>0.88600000000000001</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="E5">
         <v>3.3</v>
@@ -1033,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0.45300000000000001</v>
@@ -1065,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0.44</v>
@@ -1097,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0.442</v>
@@ -1109,19 +1136,19 @@
         <v>1.3</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G9">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I9">
         <v>0.2</v>
       </c>
       <c r="J9">
-        <v>22.6</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -1129,13 +1156,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0.46300000000000002</v>
       </c>
       <c r="D10">
-        <v>0.83899999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1173,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="G11">
         <v>2.7</v>
@@ -1182,10 +1209,10 @@
         <v>1.5</v>
       </c>
       <c r="I11">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J11">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1193,31 +1220,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>0.54400000000000004</v>
       </c>
       <c r="D12">
-        <v>0.76200000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>13.7</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1231,7 +1258,7 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="D13">
-        <v>0.68200000000000005</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="E13">
         <v>0.1</v>
@@ -1249,7 +1276,7 @@
         <v>0.6</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1257,31 +1284,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.51300000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D14">
-        <v>0.80800000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="G14">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J14">
-        <v>11.9</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1289,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>0.47</v>
@@ -1327,7 +1354,7 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="D16">
-        <v>0.81399999999999995</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="E16">
         <v>2.2000000000000002</v>
@@ -1359,7 +1386,7 @@
         <v>0.503</v>
       </c>
       <c r="D17">
-        <v>0.72199999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1385,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>0.42599999999999999</v>
@@ -1417,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0.49199999999999999</v>
@@ -1449,13 +1476,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.44700000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="D20">
-        <v>0.79100000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="E20">
         <v>1.1000000000000001</v>
@@ -1473,7 +1500,7 @@
         <v>0.1</v>
       </c>
       <c r="J20">
-        <v>16.899999999999999</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1481,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0.45200000000000001</v>
@@ -1513,22 +1540,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0.48799999999999999</v>
       </c>
       <c r="D22">
-        <v>0.89300000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="E22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F22">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="G22">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H22">
         <v>0.8</v>
@@ -1537,7 +1564,7 @@
         <v>0.6</v>
       </c>
       <c r="J22">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -1545,7 +1572,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>0.41799999999999998</v>
@@ -1577,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>0.47899999999999998</v>
       </c>
       <c r="D24">
-        <v>0.79</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1609,13 +1636,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>0.46700000000000003</v>
       </c>
       <c r="D25">
-        <v>0.85899999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E25">
         <v>1.9</v>
@@ -1641,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>0.48699999999999999</v>
       </c>
       <c r="D26">
-        <v>0.76100000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="E26">
         <v>1.4</v>
@@ -1673,7 +1700,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>0.44600000000000001</v>
@@ -1705,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>0.502</v>
+        <v>0.503</v>
       </c>
       <c r="D28">
-        <v>0.74199999999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1737,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>0.47199999999999998</v>
@@ -1769,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>0.62</v>
       </c>
       <c r="D30">
-        <v>0.44800000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1801,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>0.438</v>
       </c>
       <c r="D31">
-        <v>0.78600000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1833,7 +1860,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0.44500000000000001</v>
@@ -1865,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>0.56100000000000005</v>
       </c>
       <c r="D33">
-        <v>0.69099999999999995</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="E33">
         <v>0.1</v>
@@ -1897,31 +1924,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>0.66300000000000003</v>
       </c>
       <c r="D34">
-        <v>0.42499999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="G34">
         <v>0.7</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I34">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J34">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
@@ -1929,10 +1956,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C35">
-        <v>0.58599999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D35">
         <v>0.52400000000000002</v>
@@ -1961,31 +1988,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>0.46500000000000002</v>
       </c>
       <c r="D36">
-        <v>0.77500000000000002</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F36">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="G36">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J36">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
@@ -1993,13 +2020,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>0.41699999999999998</v>
       </c>
       <c r="D37">
-        <v>0.82</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E37">
         <v>1.3</v>
@@ -2025,31 +2052,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>0.44900000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="D38">
-        <v>0.84</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E38">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F38">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="G38">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H38">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I38">
         <v>0.3</v>
       </c>
       <c r="J38">
-        <v>25.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
@@ -2057,13 +2084,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>0.44900000000000001</v>
       </c>
       <c r="D39">
-        <v>0.81699999999999995</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="E39">
         <v>1.4</v>
@@ -2089,7 +2116,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>0.53600000000000003</v>
@@ -2121,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>0.44900000000000001</v>
@@ -2153,13 +2180,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <v>0.50900000000000001</v>
       </c>
       <c r="D42">
-        <v>0.73099999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2185,13 +2212,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43">
         <v>0.438</v>
       </c>
       <c r="D43">
-        <v>0.81100000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E43">
         <v>2.6</v>
@@ -2217,13 +2244,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>0.47599999999999998</v>
       </c>
       <c r="D44">
-        <v>0.68400000000000005</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="E44">
         <v>0.7</v>
@@ -2249,31 +2276,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>0.51100000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D45">
-        <v>0.67200000000000004</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G45">
+        <v>1.3</v>
+      </c>
+      <c r="H45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45">
-        <v>0.9</v>
-      </c>
       <c r="I45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J45">
-        <v>11.6</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
@@ -2281,13 +2308,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>0.47399999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D46">
-        <v>0.72699999999999998</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="E46">
         <v>1.7</v>
@@ -2313,31 +2340,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C47">
         <v>0.54900000000000004</v>
       </c>
       <c r="D47">
-        <v>0.64</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="G47">
+        <v>1.3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H47">
-        <v>0.9</v>
-      </c>
-      <c r="I47">
-        <v>0.9</v>
-      </c>
       <c r="J47">
-        <v>12.8</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
@@ -2345,13 +2372,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C48">
         <v>0.42599999999999999</v>
       </c>
       <c r="D48">
-        <v>0.78500000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="E48">
         <v>2.5</v>
@@ -2377,7 +2404,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C49">
         <v>0.42199999999999999</v>
@@ -2386,22 +2413,22 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="E49">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F49">
-        <v>4.4000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="G49">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="H49">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="I49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J49">
-        <v>15.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
@@ -2409,13 +2436,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>0.438</v>
       </c>
       <c r="D50">
-        <v>0.77600000000000002</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2441,31 +2468,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C51">
         <v>0.374</v>
       </c>
       <c r="D51">
-        <v>0.80300000000000005</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E51">
         <v>0.5</v>
       </c>
       <c r="F51">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="G51">
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="H51">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="I51">
         <v>0.1</v>
       </c>
       <c r="J51">
-        <v>9.8000000000000007</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
@@ -2473,7 +2500,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>0.45300000000000001</v>
@@ -2505,13 +2532,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C53">
         <v>0.501</v>
       </c>
       <c r="D53">
-        <v>0.73899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="E53">
         <v>0.2</v>
@@ -2537,13 +2564,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C54">
         <v>0.433</v>
       </c>
       <c r="D54">
-        <v>0.82699999999999996</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="E54">
         <v>0.8</v>
@@ -2569,13 +2596,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C55">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="D55">
-        <v>0.82799999999999996</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E55">
         <v>1.7</v>
@@ -2601,7 +2628,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="C56">
         <v>0.41899999999999998</v>
@@ -2633,13 +2660,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>0.436</v>
       </c>
       <c r="D57">
-        <v>0.83399999999999996</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="E57">
         <v>2.4</v>
@@ -2665,13 +2692,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>0.45700000000000002</v>
       </c>
       <c r="D58">
-        <v>0.61499999999999999</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E58">
         <v>0.9</v>
@@ -2694,2745 +2721,2745 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="C59">
-        <v>0.502</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D59">
-        <v>0.81899999999999995</v>
+        <v>0.755</v>
       </c>
       <c r="E59">
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F59">
-        <v>2.5</v>
+        <v>7.3</v>
       </c>
       <c r="G59">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H59">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I59">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J59">
-        <v>17.899999999999999</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C60">
-        <v>0.51900000000000002</v>
+        <v>0.502</v>
       </c>
       <c r="D60">
-        <v>0.78300000000000003</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F60">
-        <v>9.8000000000000007</v>
+        <v>2.5</v>
       </c>
       <c r="G60">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H60">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I60">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J60">
-        <v>18.399999999999999</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>0.51500000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D61">
-        <v>0.77300000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="E61">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="G61">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H61">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I61">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="J61">
-        <v>15.6</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C62">
-        <v>0.45800000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D62">
-        <v>0.54400000000000004</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E62">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F62">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="G62">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H62">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J62">
-        <v>17.2</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C63">
-        <v>0.54</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D63">
-        <v>0.871</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F63">
-        <v>9.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="G63">
+        <v>3.4</v>
+      </c>
+      <c r="H63">
         <v>1.5</v>
       </c>
-      <c r="H63">
-        <v>0.6</v>
-      </c>
       <c r="I63">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>13.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>0.44700000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D64">
-        <v>0.78100000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>5.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G64">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H64">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="I64">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="J64">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>0.49299999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D65">
-        <v>0.748</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F65">
-        <v>9.6999999999999993</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H65">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="J65">
-        <v>15.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C66">
-        <v>0.53500000000000003</v>
+        <v>0.433</v>
       </c>
       <c r="D66">
-        <v>0.61299999999999999</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="E66">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="F66">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="G66">
+        <v>1.4</v>
+      </c>
+      <c r="H66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.7</v>
       </c>
-      <c r="I66">
-        <v>1.3</v>
-      </c>
       <c r="J66">
-        <v>11.2</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C67">
-        <v>0.46100000000000002</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D67">
-        <v>0.77900000000000003</v>
+        <v>0.749</v>
       </c>
       <c r="E67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="G67">
+        <v>2.7</v>
+      </c>
+      <c r="H67">
+        <v>0.6</v>
+      </c>
+      <c r="I67">
         <v>1.6</v>
       </c>
-      <c r="H67">
-        <v>0.8</v>
-      </c>
-      <c r="I67">
-        <v>0.7</v>
-      </c>
       <c r="J67">
-        <v>11.5</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C68">
-        <v>0.47099999999999997</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D68">
-        <v>0.89500000000000002</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E68">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="F68">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="G68">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I68">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="J68">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C69">
-        <v>0.48099999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D69">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="E69">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="F69">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G69">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J69">
-        <v>15</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C70">
-        <v>0.48299999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="D70">
-        <v>0.78500000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F70">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H70">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J70">
-        <v>17.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C71">
-        <v>0.54600000000000004</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D71">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F71">
-        <v>9.4</v>
+        <v>6.7</v>
       </c>
       <c r="G71">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H71">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="J71">
-        <v>14.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>0.54</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D72">
-        <v>0.79800000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>0.9</v>
+      </c>
+      <c r="I72">
         <v>0.8</v>
       </c>
-      <c r="H72">
-        <v>0.3</v>
-      </c>
-      <c r="I72">
-        <v>1.6</v>
-      </c>
       <c r="J72">
-        <v>10.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>0.45100000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D73">
-        <v>0.77700000000000002</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="G73">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="H73">
-        <v>2.2000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="I73">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="J73">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>0.44600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="D74">
-        <v>0.82199999999999995</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E74">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="G74">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H74">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I74">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="J74">
-        <v>16.399999999999999</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C75">
-        <v>0.40200000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D75">
-        <v>0.80300000000000005</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H75">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I75">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J75">
-        <v>15.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>0.51200000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D76">
-        <v>0.60199999999999998</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F76">
-        <v>8.3000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H76">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I76">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="J76">
-        <v>15.3</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>0.43099999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D77">
-        <v>0.88900000000000001</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E77">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="I77">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J77">
-        <v>17.100000000000001</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C78">
-        <v>0.44800000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D78">
-        <v>0.77400000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E78">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>4.5999999999999996</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G78">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I78">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="J78">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C79">
-        <v>0.44700000000000001</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D79">
-        <v>0.78700000000000003</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="E79">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="F79">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I79">
         <v>0.3</v>
       </c>
       <c r="J79">
-        <v>17.399999999999999</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C80">
-        <v>0.433</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D80">
-        <v>0.89400000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E80">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="F80">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="G80">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H80">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="I80">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J80">
-        <v>17.399999999999999</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C81">
-        <v>0.42499999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D81">
-        <v>0.78200000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="E81">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F81">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="G81">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J81">
-        <v>15.3</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C82">
-        <v>0.46600000000000003</v>
+        <v>0.433</v>
       </c>
       <c r="D82">
-        <v>0.74099999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F82">
-        <v>10.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="G82">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="H82">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J82">
-        <v>16.399999999999999</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>0.46400000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D83">
-        <v>0.86299999999999999</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="F83">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G83">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H83">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I83">
         <v>0.2</v>
       </c>
       <c r="J83">
-        <v>11.4</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>0.496</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D84">
-        <v>0.67400000000000004</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G84">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H84">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I84">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J84">
-        <v>14.7</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C85">
-        <v>0.438</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D85">
-        <v>0.88900000000000001</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F85">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="G85">
-        <v>3.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H85">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="I85">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J85">
-        <v>10.4</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C86">
-        <v>0.45500000000000002</v>
+        <v>0.496</v>
       </c>
       <c r="D86">
-        <v>0.82299999999999995</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="E86">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="G86">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H86">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I86">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J86">
-        <v>17.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C87">
-        <v>0.44500000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="D87">
-        <v>0.81200000000000006</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G87">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H87">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F87">
-        <v>2.8</v>
-      </c>
-      <c r="G87">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H87">
-        <v>1.2</v>
-      </c>
       <c r="I87">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J87">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C88">
-        <v>0.41499999999999998</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D88">
-        <v>0.80800000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="E88">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F88">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G88">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H88">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="I88">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J88">
-        <v>8.6999999999999993</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C89">
-        <v>0.47399999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D89">
-        <v>0.85299999999999998</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E89">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="F89">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G89">
-        <v>8.6999999999999993</v>
+        <v>3.2</v>
       </c>
       <c r="H89">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I89">
         <v>0.1</v>
       </c>
       <c r="J89">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C90">
-        <v>0.42899999999999999</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D90">
-        <v>0.80100000000000005</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="E90">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="F90">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="G90">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H90">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="I90">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J90">
-        <v>17.399999999999999</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C91">
-        <v>0.54</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D91">
-        <v>0.67900000000000005</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="G91">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H91">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="I91">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J91">
-        <v>8.8000000000000007</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C92">
-        <v>0.44</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D92">
-        <v>0.80900000000000005</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="E92">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H92">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I92">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J92">
-        <v>15.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>0.42899999999999999</v>
       </c>
       <c r="D93">
-        <v>0.79900000000000004</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="E93">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F93">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="G93">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H93">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="I93">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J93">
-        <v>16</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C94">
-        <v>0.46500000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="D94">
-        <v>0.80500000000000005</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="E94">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>7.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G94">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I94">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J94">
-        <v>15.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C95">
-        <v>0.53600000000000003</v>
+        <v>0.44</v>
       </c>
       <c r="D95">
-        <v>0.748</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F95">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I95">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J95">
-        <v>16.600000000000001</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>0.41699999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D96">
-        <v>0.83599999999999997</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E96">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="G96">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H96">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I96">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J96">
-        <v>15.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C97">
-        <v>0.44800000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D97">
-        <v>0.75900000000000001</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E97">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F97">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="G97">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H97">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I97">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J97">
-        <v>9.4</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C98">
-        <v>0.45</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D98">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="G98">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H98">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I98">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="J98">
-        <v>12.7</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C99">
-        <v>0.45</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D99">
-        <v>0.85499999999999998</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E99">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="F99">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H99">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I99">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J99">
-        <v>17.3</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C100">
-        <v>0.441</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D100">
-        <v>0.90400000000000003</v>
+        <v>0.755</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="F100">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="G100">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H100">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="I100">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J100">
-        <v>14.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C101">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="D101">
-        <v>0.71499999999999997</v>
+        <v>0.754</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>5.3</v>
+        <v>8.1</v>
       </c>
       <c r="G101">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="J101">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C102">
-        <v>0.48199999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D102">
-        <v>0.72499999999999998</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F102">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>1.1000000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="H102">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I102">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="J102">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C103">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="D103">
-        <v>0.63100000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>5.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G103">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H103">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I103">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J103">
-        <v>13</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C104">
-        <v>0.41799999999999998</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D104">
-        <v>0.874</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="E104">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="G104">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H104">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>17.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C105">
-        <v>0.621</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D105">
-        <v>0.66300000000000003</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H105">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I105">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J105">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C106">
-        <v>0.46700000000000003</v>
+        <v>0.501</v>
       </c>
       <c r="D106">
-        <v>0.76800000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="E106">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="G106">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H106">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I106">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J106">
-        <v>10.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C107">
-        <v>0.42299999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D107">
-        <v>0.70399999999999996</v>
+        <v>0.873</v>
       </c>
       <c r="E107">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="F107">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="G107">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I107">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J107">
-        <v>14.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C108">
-        <v>0.441</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D108">
-        <v>0.79700000000000004</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="E108">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>3.8</v>
+        <v>9.9</v>
       </c>
       <c r="G108">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I108">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="J108">
-        <v>14.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C109">
-        <v>0.505</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D109">
-        <v>0.69799999999999995</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F109">
-        <v>8.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="G109">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I109">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J109">
-        <v>6.9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C110">
-        <v>0.46500000000000002</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0.61899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>10.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C111">
-        <v>0.498</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D111">
-        <v>0.73699999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F111">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="G111">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H111">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="I111">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J111">
-        <v>10.1</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C112">
-        <v>0.46</v>
+        <v>0.441</v>
       </c>
       <c r="D112">
-        <v>0.77200000000000002</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="E112">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F112">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="G112">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H112">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I112">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J112">
-        <v>15.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C113">
-        <v>0.48899999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D113">
-        <v>0.53400000000000003</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>9.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G113">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="J113">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C114">
-        <v>0.499</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D114">
-        <v>0.73799999999999999</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G114">
+        <v>4.3</v>
+      </c>
+      <c r="H114">
         <v>1.5</v>
       </c>
-      <c r="F114">
-        <v>7.6</v>
-      </c>
-      <c r="G114">
-        <v>3.1</v>
-      </c>
-      <c r="H114">
-        <v>0.7</v>
-      </c>
       <c r="I114">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J114">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C115">
-        <v>0.44800000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="D115">
-        <v>0.745</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="E115">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="G115">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H115">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I115">
         <v>0.6</v>
       </c>
       <c r="J115">
-        <v>9.8000000000000007</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C116">
-        <v>0.58799999999999997</v>
+        <v>0.46</v>
       </c>
       <c r="D116">
-        <v>0.39200000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F116">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="G116">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H116">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I116">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="J116">
-        <v>7.2</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C117">
-        <v>0.45</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D117">
-        <v>0.74099999999999999</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="E117">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F117">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G117">
+        <v>1.2</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>2.9</v>
       </c>
-      <c r="G117">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H117">
-        <v>0.8</v>
-      </c>
-      <c r="I117">
-        <v>0.2</v>
-      </c>
       <c r="J117">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C118">
-        <v>0.52300000000000002</v>
+        <v>0.498</v>
       </c>
       <c r="D118">
-        <v>0.52</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F118">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="G118">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H118">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I118">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="J118">
-        <v>10.199999999999999</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C119">
-        <v>0.439</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D119">
-        <v>0.80800000000000005</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E119">
+        <v>1.4</v>
+      </c>
+      <c r="F119">
+        <v>4.7</v>
+      </c>
+      <c r="G119">
         <v>1.9</v>
       </c>
-      <c r="F119">
-        <v>3.3</v>
-      </c>
-      <c r="G119">
-        <v>1.6</v>
-      </c>
       <c r="H119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I119">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J119">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C120">
-        <v>0.56100000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D120">
-        <v>0.66900000000000004</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="E120">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="G120">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H120">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I120">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="J120">
-        <v>9.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C121">
-        <v>0.41899999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D121">
-        <v>0.80300000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="E121">
-        <v>2.2000000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="F121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G121">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H121">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I121">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J121">
-        <v>11.8</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C122">
-        <v>0.45700000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D122">
-        <v>0.80700000000000005</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E122">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="G122">
         <v>1.4</v>
       </c>
       <c r="H122">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I122">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="J122">
-        <v>12.2</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C123">
-        <v>0.53300000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="D123">
-        <v>0.57799999999999996</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F123">
-        <v>8.8000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="G123">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H123">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J123">
-        <v>6.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C124">
-        <v>0.38</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D124">
-        <v>0.90300000000000002</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="E124">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="G124">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H124">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I124">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="J124">
-        <v>12.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C125">
-        <v>0.39800000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="D125">
-        <v>0.85799999999999998</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F125">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G125">
-        <v>7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H125">
         <v>0.9</v>
       </c>
       <c r="I125">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J125">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C126">
-        <v>0.47099999999999997</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D126">
-        <v>0.748</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F126">
-        <v>8.8000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="G126">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H126">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I126">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J126">
-        <v>14.5</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C127">
-        <v>0.46</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D127">
-        <v>0.77700000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E127">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>7.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G127">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H127">
         <v>0.5</v>
       </c>
       <c r="I127">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J127">
-        <v>12.3</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C128">
-        <v>0.42699999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="D128">
-        <v>0.84399999999999997</v>
+        <v>0.9</v>
       </c>
       <c r="E128">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F128">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H128">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I128">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="J128">
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C129">
-        <v>0.52300000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D129">
-        <v>0.749</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F129">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="G129">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H129">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I129">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J129">
-        <v>7.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C130">
-        <v>0.498</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D130">
-        <v>0.63400000000000001</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G130">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H130">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I130">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="J130">
-        <v>4.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C131">
-        <v>0.42399999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D131">
-        <v>0.74399999999999999</v>
+        <v>0.753</v>
       </c>
       <c r="E131">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F131">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G131">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H131">
         <v>0.8</v>
       </c>
       <c r="I131">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="J131">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C132">
-        <v>0.55700000000000005</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0.55600000000000005</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C133">
-        <v>0.44500000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D133">
-        <v>0.81899999999999995</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="E133">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F133">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="G133">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I133">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J133">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C134">
-        <v>0.51200000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D134">
-        <v>0.56799999999999995</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F134">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="G134">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H134">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J134">
-        <v>7.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C135">
-        <v>0.46200000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D135">
-        <v>0.83799999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="E135">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="G135">
-        <v>4.4000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H135">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I135">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="J135">
-        <v>12.2</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C136">
-        <v>0.40600000000000003</v>
+        <v>0.498</v>
       </c>
       <c r="D136">
-        <v>0.75</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G136">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F136">
-        <v>2.9</v>
-      </c>
-      <c r="G136">
-        <v>5.7</v>
-      </c>
       <c r="H136">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="I136">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="J136">
-        <v>11</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C137">
-        <v>0.42699999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D137">
-        <v>0.82499999999999996</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="F137">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="G137">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H137">
         <v>0.8</v>
       </c>
       <c r="I137">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J137">
-        <v>14.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C138">
-        <v>0.40200000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D138">
-        <v>0.55600000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="E138">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="G138">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H138">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I138">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="J138">
-        <v>7.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C139">
-        <v>0.42699999999999999</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0.82899999999999996</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>15.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C140">
-        <v>0.496</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D140">
-        <v>0.75600000000000001</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F140">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="G140">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H140">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J140">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C141">
-        <v>0.42399999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D141">
-        <v>0.66500000000000004</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G141">
         <v>0.6</v>
       </c>
-      <c r="F141">
-        <v>3.4</v>
-      </c>
-      <c r="G141">
-        <v>3.4</v>
-      </c>
       <c r="H141">
+        <v>0.7</v>
+      </c>
+      <c r="I141">
         <v>1.2</v>
       </c>
-      <c r="I141">
-        <v>0.3</v>
-      </c>
       <c r="J141">
-        <v>14</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C142">
-        <v>0.437</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D142">
-        <v>0.70799999999999996</v>
+        <v>0.84</v>
       </c>
       <c r="E142">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F142">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="G142">
-        <v>2.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I142">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J142">
-        <v>11</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C143">
-        <v>0.42</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D143">
-        <v>0.84799999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="E143">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="G143">
+        <v>5.2</v>
+      </c>
+      <c r="H143">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="H143">
-        <v>0.9</v>
       </c>
       <c r="I143">
         <v>0.3</v>
       </c>
       <c r="J143">
-        <v>10.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C144">
-        <v>0.40500000000000003</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D144">
-        <v>0.83299999999999996</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E144">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="F144">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="G144">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H144">
         <v>0.8</v>
@@ -5441,262 +5468,550 @@
         <v>0.2</v>
       </c>
       <c r="J144">
-        <v>10.1</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C145">
-        <v>0.41399999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D145">
-        <v>0.73499999999999999</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F145">
-        <v>4.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="G145">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H145">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I145">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J145">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C146">
-        <v>0.47399999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D146">
-        <v>0.68500000000000005</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E146">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="F146">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="G146">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H146">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="I146">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J146">
-        <v>9.1999999999999993</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C147">
-        <v>0.437</v>
+        <v>0.497</v>
       </c>
       <c r="D147">
-        <v>0.81799999999999995</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="G147">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H147">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I147">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J147">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C148">
-        <v>0.437</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D148">
-        <v>0.83499999999999996</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="E148">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="F148">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="G148">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H148">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="I148">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J148">
-        <v>13.7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C149">
-        <v>0.35599999999999998</v>
+        <v>0.437</v>
       </c>
       <c r="D149">
-        <v>0.63800000000000001</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="E149">
+        <v>1.2</v>
+      </c>
+      <c r="F149">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G149">
+        <v>2.9</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>0.3</v>
       </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-      <c r="G149">
-        <v>0.3</v>
-      </c>
-      <c r="H149">
-        <v>0.4</v>
-      </c>
-      <c r="I149">
-        <v>0.2</v>
-      </c>
       <c r="J149">
-        <v>4.0999999999999996</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C150">
-        <v>0.44400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="D150">
-        <v>0.86499999999999999</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="E150">
         <v>1.8</v>
       </c>
       <c r="F150">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="G150">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H150">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I150">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J150">
-        <v>13.3</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C151">
-        <v>0.42099999999999999</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D151">
-        <v>0.79200000000000004</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E151">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F151">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G151">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H151">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="I151">
         <v>0.2</v>
       </c>
       <c r="J151">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D152">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E152">
+        <v>0.8</v>
+      </c>
+      <c r="F152">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G152">
+        <v>1.4</v>
+      </c>
+      <c r="H152">
+        <v>0.8</v>
+      </c>
+      <c r="I152">
+        <v>0.2</v>
+      </c>
+      <c r="J152">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D153">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E153">
+        <v>0.1</v>
+      </c>
+      <c r="F153">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G153">
+        <v>1.5</v>
+      </c>
+      <c r="H153">
+        <v>1.6</v>
+      </c>
+      <c r="I153">
+        <v>0.4</v>
+      </c>
+      <c r="J153">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154">
+        <v>0.437</v>
+      </c>
+      <c r="D154">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>1.9</v>
+      </c>
+      <c r="G154">
+        <v>1.9</v>
+      </c>
+      <c r="H154">
+        <v>0.7</v>
+      </c>
+      <c r="I154">
+        <v>0.1</v>
+      </c>
+      <c r="J154">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155">
+        <v>0.437</v>
+      </c>
+      <c r="D155">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="E155">
+        <v>1.9</v>
+      </c>
+      <c r="F155">
+        <v>3.1</v>
+      </c>
+      <c r="G155">
+        <v>1.3</v>
+      </c>
+      <c r="H155">
+        <v>0.7</v>
+      </c>
+      <c r="I155">
+        <v>0.5</v>
+      </c>
+      <c r="J155">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D156">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.4</v>
+      </c>
+      <c r="F156">
+        <v>5.8</v>
+      </c>
+      <c r="G156">
+        <v>0.6</v>
+      </c>
+      <c r="H156">
+        <v>0.7</v>
+      </c>
+      <c r="I156">
+        <v>0.3</v>
+      </c>
+      <c r="J156">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D158">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E158">
+        <v>1.8</v>
+      </c>
+      <c r="F158">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G158">
+        <v>1.4</v>
+      </c>
+      <c r="H158">
+        <v>1.2</v>
+      </c>
+      <c r="I158">
+        <v>0.1</v>
+      </c>
+      <c r="J158">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D160">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E160">
+        <v>1.2</v>
+      </c>
+      <c r="F160">
+        <v>2.5</v>
+      </c>
+      <c r="G160">
+        <v>0.9</v>
+      </c>
+      <c r="H160">
+        <v>1.3</v>
+      </c>
+      <c r="I160">
+        <v>0.2</v>
+      </c>
+      <c r="J160">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B152" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152">
+      <c r="B161" t="s">
+        <v>130</v>
+      </c>
+      <c r="C161">
         <v>0.42399999999999999</v>
       </c>
-      <c r="D152">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="E152">
+      <c r="D161">
+        <v>0.81</v>
+      </c>
+      <c r="E161">
         <v>0.5</v>
       </c>
-      <c r="F152">
+      <c r="F161">
         <v>2.6</v>
       </c>
-      <c r="G152">
+      <c r="G161">
         <v>4.2</v>
       </c>
-      <c r="H152">
+      <c r="H161">
         <v>0.6</v>
       </c>
-      <c r="I152">
+      <c r="I161">
         <v>0.1</v>
       </c>
-      <c r="J152">
+      <c r="J161">
         <v>12.5</v>
       </c>
     </row>
